--- a/ElemntalsFight_Asset_Inventory.xlsx
+++ b/ElemntalsFight_Asset_Inventory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\GitHub\Elementals Fight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\GitHub\Elementals-Fight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8AA3DF-3472-4964-BAD2-7F029942C3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E0C5BD-DBC6-43CE-ACFB-C1DC80CACFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Asset Group</t>
   </si>
@@ -161,6 +161,21 @@
   </si>
   <si>
     <t>Dark Forest</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>EarthMage</t>
+  </si>
+  <si>
+    <t>Earth_Mage</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Ground textures pack</t>
   </si>
 </sst>
 </file>
@@ -599,7 +614,7 @@
   <dimension ref="A2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,11 +664,26 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
       <c r="E4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
       <c r="E5"/>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
@@ -765,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0B6712-1880-8B4D-B351-73A04E1B6A4F}">
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/ElemntalsFight_Asset_Inventory.xlsx
+++ b/ElemntalsFight_Asset_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\GitHub\Elementals-Fight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E0C5BD-DBC6-43CE-ACFB-C1DC80CACFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CF64D4-98A6-4AC6-A09F-23E109D84193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Asset Group</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Main Scene</t>
   </si>
   <si>
-    <t>Background</t>
-  </si>
-  <si>
     <t>Dark Forest</t>
   </si>
   <si>
@@ -176,6 +173,18 @@
   </si>
   <si>
     <t>Ground textures pack</t>
+  </si>
+  <si>
+    <t>Area1</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/environments/dark-forest-254979</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/characters/humanoids/fantasy/earth-mage-57637</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/textures-materials/floors/yughues-free-ground-materials-13001</t>
   </si>
 </sst>
 </file>
@@ -614,7 +623,7 @@
   <dimension ref="A2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -654,37 +663,46 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
       <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
       <c r="E4"/>
+      <c r="F4" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
       <c r="E5"/>
+      <c r="F5" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
@@ -786,8 +804,13 @@
       <c r="E36"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{D39163E0-BC41-4D2A-9220-A684A7FB6A11}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{E0A32088-72BA-409F-A198-8006807AB7A2}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{98BA0577-1610-49B5-B10A-5607BE009CEF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/ElemntalsFight_Asset_Inventory.xlsx
+++ b/ElemntalsFight_Asset_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\GitHub\Elementals-Fight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CF64D4-98A6-4AC6-A09F-23E109D84193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F213D753-4688-4DB6-88EC-C0FCFB5043E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Asset Group</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>https://assetstore.unity.com/packages/2d/textures-materials/floors/yughues-free-ground-materials-13001</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>MageAnimations</t>
+  </si>
+  <si>
+    <t>Frank_Mage</t>
+  </si>
+  <si>
+    <t>Animation clips in Mage animation folder are copied from here due to import errors</t>
   </si>
 </sst>
 </file>
@@ -623,7 +635,7 @@
   <dimension ref="A2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -712,7 +724,18 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7"/>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">

--- a/ElemntalsFight_Asset_Inventory.xlsx
+++ b/ElemntalsFight_Asset_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\GitHub\Elementals-Fight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F213D753-4688-4DB6-88EC-C0FCFB5043E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A4AA17-B462-4EAF-8617-C705BEBCDE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Asset Group</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>Animation clips in Mage animation folder are copied from here due to import errors</t>
+  </si>
+  <si>
+    <t>AllStarCharacterLibrary</t>
+  </si>
+  <si>
+    <t>Compiltion of character models, animations and scripts</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/animations/frank-rpg-mage-138889</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/characters/humanoids/fantasy/female-warrior-princess-44041</t>
   </si>
 </sst>
 </file>
@@ -635,7 +647,7 @@
   <dimension ref="A2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -719,7 +731,18 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6"/>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
     </row>
@@ -736,7 +759,9 @@
       <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8"/>
@@ -831,9 +856,11 @@
     <hyperlink ref="F3" r:id="rId1" xr:uid="{D39163E0-BC41-4D2A-9220-A684A7FB6A11}"/>
     <hyperlink ref="F5" r:id="rId2" xr:uid="{E0A32088-72BA-409F-A198-8006807AB7A2}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{98BA0577-1610-49B5-B10A-5607BE009CEF}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{F995CBF3-FDC7-4125-93FC-4AE17D898C43}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{46437D4A-E205-4FB7-80B2-8EA04FDFC7EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
